--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B925C3-61C4-4F9C-9953-475C0FA7595F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9429CB74-43F8-4EB1-AFE1-1CEF0AE5E35B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="1065" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="159">
   <si>
     <t>004 LONGGOSIPI</t>
   </si>
@@ -72,9 +72,6 @@
     <t>010 Watubangga</t>
   </si>
   <si>
-    <t>Sapari (081244487367)</t>
-  </si>
-  <si>
     <t>001 TONDOWOLIO</t>
   </si>
   <si>
@@ -471,24 +468,6 @@
     <t>072 Iwoimendaa</t>
   </si>
   <si>
-    <t>Shamad (085340427632)</t>
-  </si>
-  <si>
-    <t>Erni (082225734936)</t>
-  </si>
-  <si>
-    <t>Asri Syamsu Alam, SE (085241652081)</t>
-  </si>
-  <si>
-    <t>Marniati (085240426221)</t>
-  </si>
-  <si>
-    <t>Idhar (081242228891)</t>
-  </si>
-  <si>
-    <t>Sanur (085397367719)</t>
-  </si>
-  <si>
     <t>kec</t>
   </si>
   <si>
@@ -496,6 +475,33 @@
   </si>
   <si>
     <t>petugas</t>
+  </si>
+  <si>
+    <t>Sapari (0812-4448-7367)</t>
+  </si>
+  <si>
+    <t>Asri Syamsu Alam, SE (0852-4165-2081)</t>
+  </si>
+  <si>
+    <t>Shamad (0853-4042-7632)</t>
+  </si>
+  <si>
+    <t>Hasnawati (0813-4161-2204)</t>
+  </si>
+  <si>
+    <t>Marniati (0852-4042-6221)</t>
+  </si>
+  <si>
+    <t>Erni (0822-2573-4936)</t>
+  </si>
+  <si>
+    <t>Idhar (0812-4222-8891)</t>
+  </si>
+  <si>
+    <t>Ashadi, SE (0812-4448-8403)</t>
+  </si>
+  <si>
+    <t>Sanur S., SE (0853-9736-7719)</t>
   </si>
 </sst>
 </file>
@@ -821,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109:C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,13 +839,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,7 +922,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,7 +988,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,1173 +999,1338 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
+      <c r="C32" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C109" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C110" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C111" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C112" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C120" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C122" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C124" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C125" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C126" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="C127" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>147</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>147</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>147</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>147</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>147</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>147</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>147</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>147</v>
-      </c>
-      <c r="B136" t="s">
-        <v>146</v>
+      <c r="C136" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9429CB74-43F8-4EB1-AFE1-1CEF0AE5E35B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12CF7B0-D914-4616-A885-681B7DCE00C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$A$1:$H$137</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$2:$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="164">
   <si>
     <t>004 LONGGOSIPI</t>
   </si>
@@ -502,13 +506,28 @@
   </si>
   <si>
     <t>Sanur S., SE (0853-9736-7719)</t>
+  </si>
+  <si>
+    <t>desa kel</t>
+  </si>
+  <si>
+    <t>puskesmas</t>
+  </si>
+  <si>
+    <t>produksi</t>
+  </si>
+  <si>
+    <t>podes</t>
+  </si>
+  <si>
+    <t>KONTROL DOKUMEN KCDA (20200120)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +541,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -531,7 +558,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -539,12 +566,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,1516 +889,2265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109:C126"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F109:F127"/>
+    <mergeCell ref="G109:G127"/>
+    <mergeCell ref="H109:H127"/>
+    <mergeCell ref="F128:F137"/>
+    <mergeCell ref="G128:G137"/>
+    <mergeCell ref="H128:H137"/>
+    <mergeCell ref="F88:F94"/>
+    <mergeCell ref="G88:G94"/>
+    <mergeCell ref="H88:H94"/>
+    <mergeCell ref="F95:F108"/>
+    <mergeCell ref="G95:G108"/>
+    <mergeCell ref="H95:H108"/>
+    <mergeCell ref="F71:F80"/>
+    <mergeCell ref="G71:G80"/>
+    <mergeCell ref="H71:H80"/>
+    <mergeCell ref="F81:F87"/>
+    <mergeCell ref="G81:G87"/>
+    <mergeCell ref="H81:H87"/>
+    <mergeCell ref="F48:F59"/>
+    <mergeCell ref="G48:G59"/>
+    <mergeCell ref="H48:H59"/>
+    <mergeCell ref="F60:F70"/>
+    <mergeCell ref="G60:G70"/>
+    <mergeCell ref="H60:H70"/>
+    <mergeCell ref="F31:F40"/>
+    <mergeCell ref="G31:G40"/>
+    <mergeCell ref="H31:H40"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="H41:H47"/>
+    <mergeCell ref="F3:F16"/>
+    <mergeCell ref="G3:G16"/>
+    <mergeCell ref="H3:H16"/>
+    <mergeCell ref="F17:F30"/>
+    <mergeCell ref="G17:G30"/>
+    <mergeCell ref="H17:H30"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda-blanko-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12CF7B0-D914-4616-A885-681B7DCE00C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C45642C-C788-49E9-8036-49F363725AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$A$1:$H$137</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="168">
   <si>
     <t>004 LONGGOSIPI</t>
   </si>
@@ -496,9 +496,6 @@
     <t>Marniati (0852-4042-6221)</t>
   </si>
   <si>
-    <t>Erni (0822-2573-4936)</t>
-  </si>
-  <si>
     <t>Idhar (0812-4222-8891)</t>
   </si>
   <si>
@@ -521,6 +518,21 @@
   </si>
   <si>
     <t>KONTROL DOKUMEN KCDA (20200120)</t>
+  </si>
+  <si>
+    <t>Kode</t>
+  </si>
+  <si>
+    <t>Fikron (0823-7825-0006)</t>
+  </si>
+  <si>
+    <t>Farhan (0813-2148-8364)</t>
+  </si>
+  <si>
+    <t>Muh. Hasdi</t>
+  </si>
+  <si>
+    <t>Kec</t>
   </si>
 </sst>
 </file>
@@ -594,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -603,10 +615,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -889,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,19 +922,19 @@
     <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>147</v>
       </c>
@@ -930,23 +945,28 @@
         <v>149</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>147</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -958,11 +978,19 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" t="str">
+        <f>CONCATENATE(LEFT(A3,3),".",LEFT(B3,3))</f>
+        <v>010.004</v>
+      </c>
+      <c r="J3" t="str">
+        <f>LEFT(I3,3)</f>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -974,11 +1002,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I67" si="0">CONCATENATE(LEFT(A4,3),".",LEFT(B4,3))</f>
+        <v>010.006</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J67" si="1">LEFT(I4,3)</f>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -990,11 +1026,19 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>010.007</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1006,11 +1050,19 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>010.008</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1022,11 +1074,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>010.009</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1038,11 +1098,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>010.010</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1054,11 +1122,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>010.011</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1070,11 +1146,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>010.013</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1086,11 +1170,19 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>010.017</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1102,11 +1194,19 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>010.018</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1118,11 +1218,19 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>010.020</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1134,11 +1242,19 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>010.021</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1150,11 +1266,19 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>010.022</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1166,11 +1290,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>010.023</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1178,15 +1310,23 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>011.001</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1194,15 +1334,23 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>011.002</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1210,15 +1358,23 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>011.003</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1226,15 +1382,23 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>011.004</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1242,15 +1406,23 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>011.005</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1258,15 +1430,23 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>011.006</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1274,15 +1454,23 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>011.007</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1290,15 +1478,23 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>011.008</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1306,15 +1502,23 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>011.009</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1322,15 +1526,23 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>011.010</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1338,15 +1550,23 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>011.011</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1354,15 +1574,23 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>011.012</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1370,15 +1598,23 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>011.013</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1386,15 +1622,23 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>011.014</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -1406,11 +1650,19 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>012.001</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="1"/>
+        <v>012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -1422,11 +1674,19 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>012.002</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
+        <v>012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -1438,11 +1698,19 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>012.003</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
+        <v>012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
@@ -1454,11 +1722,19 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>012.004</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="1"/>
+        <v>012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1470,11 +1746,19 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>012.005</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v>012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1486,11 +1770,19 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>012.006</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v>012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1502,11 +1794,19 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>012.007</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="1"/>
+        <v>012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1518,11 +1818,19 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>012.008</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="1"/>
+        <v>012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -1534,11 +1842,19 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>012.009</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="1"/>
+        <v>012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1550,11 +1866,19 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>012.010</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="1"/>
+        <v>012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -1562,15 +1886,23 @@
         <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>013.001</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -1578,15 +1910,23 @@
         <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>013.002</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v>013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
@@ -1594,15 +1934,23 @@
         <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>013.003</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v>013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1610,15 +1958,23 @@
         <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>013.004</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="1"/>
+        <v>013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
@@ -1626,15 +1982,23 @@
         <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>013.005</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="1"/>
+        <v>013</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -1642,15 +2006,23 @@
         <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>013.006</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="1"/>
+        <v>013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
@@ -1658,15 +2030,23 @@
         <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>013.007</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="1"/>
+        <v>013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
@@ -1678,11 +2058,19 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>020.001</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="1"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>61</v>
       </c>
@@ -1694,11 +2082,19 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>020.002</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="1"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
@@ -1710,11 +2106,19 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>020.003</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="1"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>61</v>
       </c>
@@ -1726,11 +2130,19 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>020.004</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="1"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>61</v>
       </c>
@@ -1742,11 +2154,19 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>020.005</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="1"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>61</v>
       </c>
@@ -1758,11 +2178,19 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>020.006</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="1"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
@@ -1774,11 +2202,19 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>020.007</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="1"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>61</v>
       </c>
@@ -1790,11 +2226,19 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>020.008</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="1"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
@@ -1806,11 +2250,19 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>020.009</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="1"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -1822,11 +2274,19 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>020.010</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="1"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
@@ -1838,11 +2298,19 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>020.011</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="1"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
@@ -1854,11 +2322,19 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>020.012</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="1"/>
+        <v>020</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>73</v>
       </c>
@@ -1866,15 +2342,23 @@
         <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>030.007</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="1"/>
+        <v>030</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>73</v>
       </c>
@@ -1882,15 +2366,23 @@
         <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>030.011</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="1"/>
+        <v>030</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>73</v>
       </c>
@@ -1898,15 +2390,23 @@
         <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>030.012</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="1"/>
+        <v>030</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>73</v>
       </c>
@@ -1914,15 +2414,23 @@
         <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>030.013</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="1"/>
+        <v>030</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
@@ -1930,15 +2438,23 @@
         <v>66</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>030.014</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="1"/>
+        <v>030</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>73</v>
       </c>
@@ -1946,15 +2462,23 @@
         <v>67</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>030.015</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="1"/>
+        <v>030</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
@@ -1962,15 +2486,23 @@
         <v>68</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v>030.016</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="1"/>
+        <v>030</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
@@ -1978,15 +2510,23 @@
         <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" t="str">
+        <f t="shared" si="0"/>
+        <v>030.017</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="1"/>
+        <v>030</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>73</v>
       </c>
@@ -1994,15 +2534,23 @@
         <v>70</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" t="str">
+        <f t="shared" ref="I68:I131" si="2">CONCATENATE(LEFT(A68,3),".",LEFT(B68,3))</f>
+        <v>030.018</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" ref="J68:J131" si="3">LEFT(I68,3)</f>
+        <v>030</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
@@ -2010,15 +2558,23 @@
         <v>71</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" t="str">
+        <f t="shared" si="2"/>
+        <v>030.019</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="3"/>
+        <v>030</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
@@ -2026,15 +2582,23 @@
         <v>72</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" t="str">
+        <f t="shared" si="2"/>
+        <v>030.020</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="3"/>
+        <v>030</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
@@ -2046,11 +2610,19 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" t="str">
+        <f t="shared" si="2"/>
+        <v>031.001</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="3"/>
+        <v>031</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>84</v>
       </c>
@@ -2062,11 +2634,19 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" t="str">
+        <f t="shared" si="2"/>
+        <v>031.002</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="3"/>
+        <v>031</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>84</v>
       </c>
@@ -2078,11 +2658,19 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" t="str">
+        <f t="shared" si="2"/>
+        <v>031.003</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="3"/>
+        <v>031</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>84</v>
       </c>
@@ -2094,11 +2682,19 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" t="str">
+        <f t="shared" si="2"/>
+        <v>031.004</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="3"/>
+        <v>031</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
@@ -2110,11 +2706,19 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" t="str">
+        <f t="shared" si="2"/>
+        <v>031.005</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="3"/>
+        <v>031</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>84</v>
       </c>
@@ -2126,11 +2730,19 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" t="str">
+        <f t="shared" si="2"/>
+        <v>031.006</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="3"/>
+        <v>031</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>84</v>
       </c>
@@ -2142,11 +2754,19 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" t="str">
+        <f t="shared" si="2"/>
+        <v>031.007</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="3"/>
+        <v>031</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>84</v>
       </c>
@@ -2158,11 +2778,19 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" t="str">
+        <f t="shared" si="2"/>
+        <v>031.008</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="3"/>
+        <v>031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
@@ -2174,11 +2802,19 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" t="str">
+        <f t="shared" si="2"/>
+        <v>031.009</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="3"/>
+        <v>031</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>84</v>
       </c>
@@ -2190,11 +2826,19 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" t="str">
+        <f t="shared" si="2"/>
+        <v>031.010</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="3"/>
+        <v>031</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>92</v>
       </c>
@@ -2206,11 +2850,19 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" t="str">
+        <f t="shared" si="2"/>
+        <v>060.008</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="3"/>
+        <v>060</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
@@ -2222,11 +2874,19 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" t="str">
+        <f t="shared" si="2"/>
+        <v>060.009</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="3"/>
+        <v>060</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -2238,11 +2898,19 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" t="str">
+        <f t="shared" si="2"/>
+        <v>060.010</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="3"/>
+        <v>060</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -2254,11 +2922,19 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" t="str">
+        <f t="shared" si="2"/>
+        <v>060.011</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="3"/>
+        <v>060</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -2270,11 +2946,19 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" t="str">
+        <f t="shared" si="2"/>
+        <v>060.012</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="3"/>
+        <v>060</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -2286,11 +2970,19 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" t="str">
+        <f t="shared" si="2"/>
+        <v>060.013</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="3"/>
+        <v>060</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
@@ -2302,11 +2994,19 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" t="str">
+        <f t="shared" si="2"/>
+        <v>060.014</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="3"/>
+        <v>060</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>100</v>
       </c>
@@ -2314,15 +3014,23 @@
         <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" t="str">
+        <f t="shared" si="2"/>
+        <v>061.001</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="3"/>
+        <v>061</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>100</v>
       </c>
@@ -2330,15 +3038,23 @@
         <v>94</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" t="str">
+        <f t="shared" si="2"/>
+        <v>061.002</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="3"/>
+        <v>061</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>100</v>
       </c>
@@ -2346,15 +3062,23 @@
         <v>95</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" t="str">
+        <f t="shared" si="2"/>
+        <v>061.003</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="3"/>
+        <v>061</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>100</v>
       </c>
@@ -2362,15 +3086,23 @@
         <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" t="str">
+        <f t="shared" si="2"/>
+        <v>061.004</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="3"/>
+        <v>061</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>100</v>
       </c>
@@ -2378,15 +3110,23 @@
         <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" t="str">
+        <f t="shared" si="2"/>
+        <v>061.005</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="3"/>
+        <v>061</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>100</v>
       </c>
@@ -2394,15 +3134,23 @@
         <v>98</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" t="str">
+        <f t="shared" si="2"/>
+        <v>061.006</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="3"/>
+        <v>061</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>100</v>
       </c>
@@ -2410,15 +3158,23 @@
         <v>99</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" t="str">
+        <f t="shared" si="2"/>
+        <v>061.007</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="3"/>
+        <v>061</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>115</v>
       </c>
@@ -2426,15 +3182,23 @@
         <v>101</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" t="str">
+        <f t="shared" si="2"/>
+        <v>070.010</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>115</v>
       </c>
@@ -2442,15 +3206,23 @@
         <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" t="str">
+        <f t="shared" si="2"/>
+        <v>070.011</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>115</v>
       </c>
@@ -2458,15 +3230,23 @@
         <v>103</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" t="str">
+        <f t="shared" si="2"/>
+        <v>070.012</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>115</v>
       </c>
@@ -2474,15 +3254,23 @@
         <v>104</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" t="str">
+        <f t="shared" si="2"/>
+        <v>070.013</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>115</v>
       </c>
@@ -2490,15 +3278,23 @@
         <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" t="str">
+        <f t="shared" si="2"/>
+        <v>070.014</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>115</v>
       </c>
@@ -2506,15 +3302,23 @@
         <v>106</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" t="str">
+        <f t="shared" si="2"/>
+        <v>070.015</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>115</v>
       </c>
@@ -2522,15 +3326,23 @@
         <v>107</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" t="str">
+        <f t="shared" si="2"/>
+        <v>070.016</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>115</v>
       </c>
@@ -2538,15 +3350,23 @@
         <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" t="str">
+        <f t="shared" si="2"/>
+        <v>070.017</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>115</v>
       </c>
@@ -2554,15 +3374,23 @@
         <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" t="str">
+        <f t="shared" si="2"/>
+        <v>070.018</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>115</v>
       </c>
@@ -2570,15 +3398,23 @@
         <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" t="str">
+        <f t="shared" si="2"/>
+        <v>070.024</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>115</v>
       </c>
@@ -2586,15 +3422,23 @@
         <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" t="str">
+        <f t="shared" si="2"/>
+        <v>070.025</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>115</v>
       </c>
@@ -2602,15 +3446,23 @@
         <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" t="str">
+        <f t="shared" si="2"/>
+        <v>070.027</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>115</v>
       </c>
@@ -2618,15 +3470,23 @@
         <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" t="str">
+        <f t="shared" si="2"/>
+        <v>070.028</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>115</v>
       </c>
@@ -2634,15 +3494,23 @@
         <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" t="str">
+        <f t="shared" si="2"/>
+        <v>070.029</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="3"/>
+        <v>070</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>135</v>
       </c>
@@ -2650,15 +3518,23 @@
         <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" t="str">
+        <f t="shared" si="2"/>
+        <v>071.001</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>135</v>
       </c>
@@ -2666,15 +3542,23 @@
         <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" t="str">
+        <f t="shared" si="2"/>
+        <v>071.002</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>135</v>
       </c>
@@ -2682,15 +3566,23 @@
         <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" t="str">
+        <f t="shared" si="2"/>
+        <v>071.003</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>135</v>
       </c>
@@ -2698,15 +3590,23 @@
         <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" t="str">
+        <f t="shared" si="2"/>
+        <v>071.004</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>135</v>
       </c>
@@ -2714,15 +3614,23 @@
         <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" t="str">
+        <f t="shared" si="2"/>
+        <v>071.005</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>135</v>
       </c>
@@ -2730,15 +3638,23 @@
         <v>121</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" t="str">
+        <f t="shared" si="2"/>
+        <v>071.006</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>135</v>
       </c>
@@ -2746,15 +3662,23 @@
         <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" t="str">
+        <f t="shared" si="2"/>
+        <v>071.007</v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>135</v>
       </c>
@@ -2762,15 +3686,23 @@
         <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" t="str">
+        <f t="shared" si="2"/>
+        <v>071.008</v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>135</v>
       </c>
@@ -2778,15 +3710,23 @@
         <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" t="str">
+        <f t="shared" si="2"/>
+        <v>071.009</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>135</v>
       </c>
@@ -2794,15 +3734,23 @@
         <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" t="str">
+        <f t="shared" si="2"/>
+        <v>071.010</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>135</v>
       </c>
@@ -2810,15 +3758,23 @@
         <v>126</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" t="str">
+        <f t="shared" si="2"/>
+        <v>071.011</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>135</v>
       </c>
@@ -2826,15 +3782,23 @@
         <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" t="str">
+        <f t="shared" si="2"/>
+        <v>071.012</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>135</v>
       </c>
@@ -2842,15 +3806,23 @@
         <v>128</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" t="str">
+        <f t="shared" si="2"/>
+        <v>071.013</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>135</v>
       </c>
@@ -2858,15 +3830,23 @@
         <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" t="str">
+        <f t="shared" si="2"/>
+        <v>071.014</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>135</v>
       </c>
@@ -2874,15 +3854,23 @@
         <v>130</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" t="str">
+        <f t="shared" si="2"/>
+        <v>071.015</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>135</v>
       </c>
@@ -2890,15 +3878,23 @@
         <v>131</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" t="str">
+        <f t="shared" si="2"/>
+        <v>071.016</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>135</v>
       </c>
@@ -2906,15 +3902,23 @@
         <v>132</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" t="str">
+        <f t="shared" si="2"/>
+        <v>071.017</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>135</v>
       </c>
@@ -2922,15 +3926,23 @@
         <v>133</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" t="str">
+        <f t="shared" si="2"/>
+        <v>071.018</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>135</v>
       </c>
@@ -2938,15 +3950,23 @@
         <v>134</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" t="str">
+        <f t="shared" si="2"/>
+        <v>071.019</v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" si="3"/>
+        <v>071</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>146</v>
       </c>
@@ -2954,15 +3974,23 @@
         <v>136</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" t="str">
+        <f t="shared" si="2"/>
+        <v>072.001</v>
+      </c>
+      <c r="J128" t="str">
+        <f t="shared" si="3"/>
+        <v>072</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>146</v>
       </c>
@@ -2970,15 +3998,23 @@
         <v>137</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" t="str">
+        <f t="shared" si="2"/>
+        <v>072.002</v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" si="3"/>
+        <v>072</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>146</v>
       </c>
@@ -2986,15 +4022,23 @@
         <v>138</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" t="str">
+        <f t="shared" si="2"/>
+        <v>072.003</v>
+      </c>
+      <c r="J130" t="str">
+        <f t="shared" si="3"/>
+        <v>072</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>146</v>
       </c>
@@ -3002,15 +4046,23 @@
         <v>139</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" t="str">
+        <f t="shared" si="2"/>
+        <v>072.004</v>
+      </c>
+      <c r="J131" t="str">
+        <f t="shared" si="3"/>
+        <v>072</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>146</v>
       </c>
@@ -3018,15 +4070,23 @@
         <v>140</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" t="str">
+        <f t="shared" ref="I132:I137" si="4">CONCATENATE(LEFT(A132,3),".",LEFT(B132,3))</f>
+        <v>072.005</v>
+      </c>
+      <c r="J132" t="str">
+        <f t="shared" ref="J132:J137" si="5">LEFT(I132,3)</f>
+        <v>072</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>146</v>
       </c>
@@ -3034,15 +4094,23 @@
         <v>141</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" t="str">
+        <f t="shared" si="4"/>
+        <v>072.006</v>
+      </c>
+      <c r="J133" t="str">
+        <f t="shared" si="5"/>
+        <v>072</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>146</v>
       </c>
@@ -3050,15 +4118,23 @@
         <v>142</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" t="str">
+        <f t="shared" si="4"/>
+        <v>072.007</v>
+      </c>
+      <c r="J134" t="str">
+        <f t="shared" si="5"/>
+        <v>072</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>146</v>
       </c>
@@ -3066,15 +4142,23 @@
         <v>143</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" t="str">
+        <f t="shared" si="4"/>
+        <v>072.008</v>
+      </c>
+      <c r="J135" t="str">
+        <f t="shared" si="5"/>
+        <v>072</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>146</v>
       </c>
@@ -3082,15 +4166,23 @@
         <v>144</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" t="str">
+        <f t="shared" si="4"/>
+        <v>072.009</v>
+      </c>
+      <c r="J136" t="str">
+        <f t="shared" si="5"/>
+        <v>072</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>146</v>
       </c>
@@ -3098,16 +4190,45 @@
         <v>145</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" t="str">
+        <f t="shared" si="4"/>
+        <v>072.010</v>
+      </c>
+      <c r="J137" t="str">
+        <f t="shared" si="5"/>
+        <v>072</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="F3:F16"/>
+    <mergeCell ref="G3:G16"/>
+    <mergeCell ref="H3:H16"/>
+    <mergeCell ref="F17:F30"/>
+    <mergeCell ref="G17:G30"/>
+    <mergeCell ref="H17:H30"/>
+    <mergeCell ref="F31:F40"/>
+    <mergeCell ref="G31:G40"/>
+    <mergeCell ref="H31:H40"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="H41:H47"/>
+    <mergeCell ref="F81:F87"/>
+    <mergeCell ref="G81:G87"/>
+    <mergeCell ref="H81:H87"/>
+    <mergeCell ref="F48:F59"/>
+    <mergeCell ref="G48:G59"/>
+    <mergeCell ref="H48:H59"/>
+    <mergeCell ref="F60:F70"/>
+    <mergeCell ref="G60:G70"/>
+    <mergeCell ref="H60:H70"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F109:F127"/>
     <mergeCell ref="G109:G127"/>
@@ -3124,30 +4245,9 @@
     <mergeCell ref="F71:F80"/>
     <mergeCell ref="G71:G80"/>
     <mergeCell ref="H71:H80"/>
-    <mergeCell ref="F81:F87"/>
-    <mergeCell ref="G81:G87"/>
-    <mergeCell ref="H81:H87"/>
-    <mergeCell ref="F48:F59"/>
-    <mergeCell ref="G48:G59"/>
-    <mergeCell ref="H48:H59"/>
-    <mergeCell ref="F60:F70"/>
-    <mergeCell ref="G60:G70"/>
-    <mergeCell ref="H60:H70"/>
-    <mergeCell ref="F31:F40"/>
-    <mergeCell ref="G31:G40"/>
-    <mergeCell ref="H31:H40"/>
-    <mergeCell ref="F41:F47"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="H41:H47"/>
-    <mergeCell ref="F3:F16"/>
-    <mergeCell ref="G3:G16"/>
-    <mergeCell ref="H3:H16"/>
-    <mergeCell ref="F17:F30"/>
-    <mergeCell ref="G17:G30"/>
-    <mergeCell ref="H17:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda-blanko-generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\kcda-blanko-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C45642C-C788-49E9-8036-49F363725AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC26BAF0-57ED-4D92-AAB6-17AA98C51E96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$A$1:$H$137</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="167">
   <si>
     <t>004 LONGGOSIPI</t>
   </si>
@@ -523,16 +523,13 @@
     <t>Kode</t>
   </si>
   <si>
-    <t>Fikron (0823-7825-0006)</t>
-  </si>
-  <si>
     <t>Farhan (0813-2148-8364)</t>
   </si>
   <si>
-    <t>Muh. Hasdi</t>
-  </si>
-  <si>
     <t>Kec</t>
+  </si>
+  <si>
+    <t>Muh. Hasdi, SE (0852-4166-0612)</t>
   </si>
 </sst>
 </file>
@@ -615,13 +612,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -906,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,16 +920,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -962,8 +959,8 @@
       <c r="I2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>167</v>
+      <c r="J2" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1310,7 +1307,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1334,7 +1331,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1358,7 +1355,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1382,7 +1379,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1406,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1430,7 +1427,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1454,7 +1451,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1478,7 +1475,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1502,7 +1499,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1526,7 +1523,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1550,7 +1547,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1574,7 +1571,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1598,7 +1595,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1622,7 +1619,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1886,7 +1883,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1910,7 +1907,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1934,7 +1931,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1958,7 +1955,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1982,7 +1979,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2006,7 +2003,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2030,7 +2027,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4208,27 +4205,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F3:F16"/>
-    <mergeCell ref="G3:G16"/>
-    <mergeCell ref="H3:H16"/>
-    <mergeCell ref="F17:F30"/>
-    <mergeCell ref="G17:G30"/>
-    <mergeCell ref="H17:H30"/>
-    <mergeCell ref="F31:F40"/>
-    <mergeCell ref="G31:G40"/>
-    <mergeCell ref="H31:H40"/>
-    <mergeCell ref="F41:F47"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="H41:H47"/>
-    <mergeCell ref="F81:F87"/>
-    <mergeCell ref="G81:G87"/>
-    <mergeCell ref="H81:H87"/>
-    <mergeCell ref="F48:F59"/>
-    <mergeCell ref="G48:G59"/>
-    <mergeCell ref="H48:H59"/>
-    <mergeCell ref="F60:F70"/>
-    <mergeCell ref="G60:G70"/>
-    <mergeCell ref="H60:H70"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F109:F127"/>
     <mergeCell ref="G109:G127"/>
@@ -4245,6 +4221,27 @@
     <mergeCell ref="F71:F80"/>
     <mergeCell ref="G71:G80"/>
     <mergeCell ref="H71:H80"/>
+    <mergeCell ref="F81:F87"/>
+    <mergeCell ref="G81:G87"/>
+    <mergeCell ref="H81:H87"/>
+    <mergeCell ref="F48:F59"/>
+    <mergeCell ref="G48:G59"/>
+    <mergeCell ref="H48:H59"/>
+    <mergeCell ref="F60:F70"/>
+    <mergeCell ref="G60:G70"/>
+    <mergeCell ref="H60:H70"/>
+    <mergeCell ref="F31:F40"/>
+    <mergeCell ref="G31:G40"/>
+    <mergeCell ref="H31:H40"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="H41:H47"/>
+    <mergeCell ref="F3:F16"/>
+    <mergeCell ref="G3:G16"/>
+    <mergeCell ref="H3:H16"/>
+    <mergeCell ref="F17:F30"/>
+    <mergeCell ref="G17:G30"/>
+    <mergeCell ref="H17:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
